--- a/301409-hackathon-backend/Associate Details.xlsx
+++ b/301409-hackathon-backend/Associate Details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>Associate ID</t>
   </si>
@@ -76,6 +76,90 @@
   </si>
   <si>
     <t>BFSI</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Banking &amp; Financial Services</t>
+  </si>
+  <si>
+    <t>Field Marketing</t>
+  </si>
+  <si>
+    <t>APAC Leadership &amp; Operations</t>
+  </si>
+  <si>
+    <t>CDB-AIA-BFS</t>
+  </si>
+  <si>
+    <t>CDB-AIA-BAI-BIG Data</t>
+  </si>
+  <si>
+    <t>Corporate Communications</t>
+  </si>
+  <si>
+    <t>EAS-IPM-CEP-DIGITAL</t>
+  </si>
+  <si>
+    <t>EAS-IPM-PEGA</t>
+  </si>
+  <si>
+    <t>Quality Engineering &amp;Assurance</t>
+  </si>
+  <si>
+    <t>Recruitment</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>Dhoni</t>
+  </si>
+  <si>
+    <t>Sachin</t>
+  </si>
+  <si>
+    <t>Kohli</t>
+  </si>
+  <si>
+    <t>Moorthy</t>
+  </si>
+  <si>
+    <t>Selva</t>
+  </si>
+  <si>
+    <t>Sethu</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Balaji</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Prakash</t>
+  </si>
+  <si>
+    <t>Prabhu</t>
+  </si>
+  <si>
+    <t>Gokul</t>
+  </si>
+  <si>
+    <t>Aravind</t>
   </si>
 </sst>
 </file>
@@ -393,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +489,7 @@
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -444,7 +528,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>453963</v>
+        <v>458964</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -461,7 +545,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>457763</v>
+        <v>458965</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -478,7 +562,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>228963</v>
+        <v>458966</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -491,6 +575,278 @@
       </c>
       <c r="E5" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>458967</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>458968</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>458969</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>458970</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>458971</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>458972</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>458973</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>458974</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>458975</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>458976</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>458977</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>458978</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>458979</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>458980</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>458981</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>458982</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
